--- a/medicine/Mort/Cimetière_nouveau_d'Ivry-sur-Seine/Cimetière_nouveau_d'Ivry-sur-Seine.xlsx
+++ b/medicine/Mort/Cimetière_nouveau_d'Ivry-sur-Seine/Cimetière_nouveau_d'Ivry-sur-Seine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_d%27Ivry-sur-Seine</t>
+          <t>Cimetière_nouveau_d'Ivry-sur-Seine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière nouveau d'Ivry-sur-Seine est un des cimetières communaux de la commune d'Ivry-sur-Seine, juste au sud-est de Paris, dans le département du Val-de-Marne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière nouveau d'Ivry-sur-Seine est un des cimetières communaux de la commune d'Ivry-sur-Seine, juste au sud-est de Paris, dans le département du Val-de-Marne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_d%27Ivry-sur-Seine</t>
+          <t>Cimetière_nouveau_d'Ivry-sur-Seine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière, établi sur le plateau de la ville, date de 1875, lorsqu'il succède à l'ancien cimetière[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière, établi sur le plateau de la ville, date de 1875, lorsqu'il succède à l'ancien cimetière.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_d%27Ivry-sur-Seine</t>
+          <t>Cimetière_nouveau_d'Ivry-sur-Seine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Paul Boccara (1932-2017), économiste et historien[3], membre du parti communiste français.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Paul Boccara (1932-2017), économiste et historien, membre du parti communiste français.
 Georges Gosnat (1914-1982), homme politique membre du parti communiste français, sous-secrétaire d'État à l'armement et député.
-Georges Jehenne, fusillé comme otage le 11 août 1942 au Mont-Valérien[4].
-Allain Leprest (1954-2011), chanteur et parolier[5].
+Georges Jehenne, fusillé comme otage le 11 août 1942 au Mont-Valérien.
+Allain Leprest (1954-2011), chanteur et parolier.
 Georges Marrane (1888-1976), homme politique membre du Parti communiste français, maire d'Ivry, ministre de la Santé, député.</t>
         </is>
       </c>
